--- a/analysis/metadata/P06_1/P06_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P06_1/P06_1_minimal_metadata.xlsx
@@ -471,6 +471,11 @@
           <t>viby</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>04/03/2021 00:00</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>au 120, site viby 1 v12, depth 1.11. anoxic. trace pollution</t>
@@ -489,6 +494,11 @@
       <c r="L2" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>04/03/2021 00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -539,6 +549,11 @@
           <t>himmark strand</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>28/06/2021 00:00</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>au 319, site himmark strand h01, depth 3.29. anoxic. polluted</t>
@@ -557,6 +572,11 @@
       <c r="L3" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>28/06/2021 00:00</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -607,6 +627,11 @@
           <t>ringe</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22/06/2021 00:00</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>au 268, site ringe r05, depth 3.16. hypoxic. trace pollution</t>
@@ -625,6 +650,11 @@
       <c r="L4" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>22/06/2021 00:00</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -675,6 +705,11 @@
           <t>viby</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>24/08/2021 00:00</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>au 417, site viby 2 y17, depth 1.37. anoxic. polluted</t>
@@ -693,6 +728,11 @@
       <c r="L5" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>24/08/2021 00:00</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -743,6 +783,11 @@
           <t>ringe</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22/06/2021 00:00</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>au 391, site ringe r11, depth 0.89. oxic. control</t>
@@ -761,6 +806,11 @@
       <c r="L6" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>22/06/2021 00:00</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -811,6 +861,11 @@
           <t>viby</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>24/08/2021 00:00</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>au 403, site viby 2 y16, depth 1.42. hypoxic. polluted</t>
@@ -829,6 +884,11 @@
       <c r="L7" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>24/08/2021 00:00</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -879,6 +939,11 @@
           <t>ringe</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>22/06/2021 00:00</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>au 270, site ringe r05, depth 5.30. anoxic. pollutied</t>
@@ -897,6 +962,11 @@
       <c r="L8" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>22/06/2021 00:00</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -947,6 +1017,11 @@
           <t>viby</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>24/08/2021 00:00</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>au 427, site viby 2 y18, depth 1.87. anoxic. polluted</t>
@@ -965,6 +1040,11 @@
       <c r="L9" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>24/08/2021 00:00</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1015,6 +1095,11 @@
           <t>ringe</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>22/06/2021 00:00</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>au 269, site ringe r05, depth 4.32. anoxic. polluted</t>
@@ -1033,6 +1118,11 @@
       <c r="L10" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>22/06/2021 00:00</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1083,6 +1173,11 @@
           <t>viby</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>03/03/2021 00:00</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>au 062, site viby 1 v06, depth 1.35. hypoxic. control</t>
@@ -1101,6 +1196,11 @@
       <c r="L11" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>03/03/2021 00:00</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1151,6 +1251,11 @@
           <t>viby</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>04/03/2021 00:00</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>au 121, site viby 1 v12, depth 1.47. anoxic. polluted</t>
@@ -1169,6 +1274,11 @@
       <c r="L12" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>04/03/2021 00:00</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1219,6 +1329,11 @@
           <t>viby</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>24/08/2021 00:00</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>au 434, site viby 2 y19, depth 1.02. anoxic. control</t>
@@ -1237,6 +1352,11 @@
       <c r="L13" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>24/08/2021 00:00</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1287,6 +1407,11 @@
           <t>viby</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>24/08/2021 00:00</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>au 404, site viby 2 y16, depth 1.51. hypoxic. polluted</t>
@@ -1305,6 +1430,11 @@
       <c r="L14" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>24/08/2021 00:00</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1355,6 +1485,11 @@
           <t>himmark strand</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>28/06/2021 00:00</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>au 318, site himmark strand h01, depth 1.82. anoxic. polluted</t>
@@ -1373,6 +1508,11 @@
       <c r="L15" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>28/06/2021 00:00</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1423,6 +1563,11 @@
           <t>himmark strand</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>28/06/2021 00:00</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>au 317, site himmark strand h01, depth 1.06. anoxic. trace pollution</t>
@@ -1441,6 +1586,11 @@
       <c r="L16" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>28/06/2021 00:00</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1491,6 +1641,11 @@
           <t>viby</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>24/08/2021 00:00</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>au 415, site viby 2 y17, depth 1.00. hypoxic. below detection limit pollution</t>
@@ -1509,6 +1664,11 @@
       <c r="L17" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>24/08/2021 00:00</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1559,6 +1719,11 @@
           <t>viby</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>24/08/2021 00:00</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>au 426, site viby 2 y18, depth 1.76. anoxic. polluted</t>
@@ -1577,6 +1742,11 @@
       <c r="L18" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>24/08/2021 00:00</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1627,6 +1797,11 @@
           <t>viby</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>24/08/2021 00:00</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>au 402, site viby 2 y16, depth 1.04. oxic. trace pollution</t>
@@ -1645,6 +1820,11 @@
       <c r="L19" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>24/08/2021 00:00</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1695,6 +1875,11 @@
           <t>viby</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>24/08/2021 00:00</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>au 418, site viby 2 y17, depth 1.46. anoxic. polluted</t>
@@ -1713,6 +1898,11 @@
       <c r="L20" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>24/08/2021 00:00</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1763,6 +1953,11 @@
           <t>viby</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>24/08/2021 00:00</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>au 425, site viby 2 y18, depth 1.64. hypoxic. polluted</t>
@@ -1781,6 +1976,11 @@
       <c r="L21" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>24/08/2021 00:00</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1831,6 +2031,11 @@
           <t>viby</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>04/03/2021 00:00</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>au 119, site viby 1 v12, depth 0.93. oxic. below detection limit pollution</t>
@@ -1849,6 +2054,11 @@
       <c r="L22" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>04/03/2021 00:00</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1899,6 +2109,11 @@
           <t>himmark strand</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>28/06/2021 00:00</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>au 348, site himmark strand h05, depth 1.05. anoxic. control</t>
@@ -1917,6 +2132,11 @@
       <c r="L23" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>28/06/2021 00:00</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">

--- a/analysis/metadata/P06_1/P06_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P06_1/P06_1_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>04/03/2021 00:00</t>
+          <t>2021-03-04</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>04/03/2021 00:00</t>
+          <t>2021-03-04</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>28/06/2021 00:00</t>
+          <t>2021-06-28</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>28/06/2021 00:00</t>
+          <t>2021-06-28</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>22/06/2021 00:00</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>22/06/2021 00:00</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>24/08/2021 00:00</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>24/08/2021 00:00</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>22/06/2021 00:00</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>22/06/2021 00:00</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>24/08/2021 00:00</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>24/08/2021 00:00</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>22/06/2021 00:00</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>22/06/2021 00:00</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>24/08/2021 00:00</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>24/08/2021 00:00</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>22/06/2021 00:00</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>22/06/2021 00:00</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>03/03/2021 00:00</t>
+          <t>2021-03-03</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>03/03/2021 00:00</t>
+          <t>2021-03-03</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>04/03/2021 00:00</t>
+          <t>2021-03-04</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>04/03/2021 00:00</t>
+          <t>2021-03-04</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>24/08/2021 00:00</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>24/08/2021 00:00</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>24/08/2021 00:00</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>24/08/2021 00:00</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>28/06/2021 00:00</t>
+          <t>2021-06-28</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>28/06/2021 00:00</t>
+          <t>2021-06-28</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>28/06/2021 00:00</t>
+          <t>2021-06-28</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>28/06/2021 00:00</t>
+          <t>2021-06-28</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>24/08/2021 00:00</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>24/08/2021 00:00</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>24/08/2021 00:00</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>24/08/2021 00:00</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>24/08/2021 00:00</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>24/08/2021 00:00</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>24/08/2021 00:00</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>24/08/2021 00:00</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>24/08/2021 00:00</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>24/08/2021 00:00</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>04/03/2021 00:00</t>
+          <t>2021-03-04</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>04/03/2021 00:00</t>
+          <t>2021-03-04</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>28/06/2021 00:00</t>
+          <t>2021-06-28</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>28/06/2021 00:00</t>
+          <t>2021-06-28</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">

--- a/analysis/metadata/P06_1/P06_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P06_1/P06_1_minimal_metadata.xlsx
@@ -818,16 +818,6 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1208,16 +1198,6 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1364,16 +1344,6 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2142,16 +2112,6 @@
       <c r="N23" t="inlineStr">
         <is>
           <t>Urban</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>No pollution</t>
         </is>
       </c>
     </row>
